--- a/assets/forms/tentative_schedule.xlsx
+++ b/assets/forms/tentative_schedule.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alphamanae/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alphamanae/Documents/GitHub/honeybeehealth2021.github.io/assets/forms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200A3451-D217-284A-BEE1-BC229AE4F094}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05FB0F0-1F21-664B-93E0-CF49C94439B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="23500" xr2:uid="{47551867-1369-F343-BD4D-B0AF0746D20B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" xr2:uid="{47551867-1369-F343-BD4D-B0AF0746D20B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$48:$J$73</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -452,91 +452,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -545,6 +464,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -875,8 +875,8 @@
   </sheetPr>
   <dimension ref="A1:N90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I40" sqref="A1:I45"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -892,14 +892,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -920,10 +920,10 @@
       <c r="F2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="42"/>
+      <c r="I2" s="41"/>
     </row>
     <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -971,10 +971,10 @@
       <c r="F5" s="10">
         <v>0.45833333333333331</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="29" t="s">
         <v>38</v>
       </c>
     </row>
@@ -997,8 +997,8 @@
       <c r="F6" s="10">
         <v>0.46527777777777773</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="28"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
@@ -1019,10 +1019,10 @@
       <c r="F7" s="10">
         <v>0.47222222222222227</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="29"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
@@ -1043,8 +1043,8 @@
       <c r="F8" s="10">
         <v>0.47916666666666669</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="27" t="s">
+      <c r="H8" s="47"/>
+      <c r="I8" s="29" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1067,8 +1067,8 @@
       <c r="F9" s="10">
         <v>0.4861111111111111</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="28"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="30"/>
     </row>
     <row r="10" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
@@ -1089,8 +1089,8 @@
       <c r="F10" s="10">
         <v>0.49305555555555558</v>
       </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="29"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
@@ -1111,10 +1111,10 @@
       <c r="F11" s="10">
         <v>0.5</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="27" t="s">
+      <c r="I11" s="29" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1137,8 +1137,8 @@
       <c r="F12" s="10">
         <v>0.50694444444444442</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
@@ -1159,8 +1159,8 @@
       <c r="F13" s="10">
         <v>0.51388888888888895</v>
       </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
@@ -1181,10 +1181,10 @@
       <c r="F14" s="10">
         <v>0.52083333333333337</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="32" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1207,8 +1207,8 @@
       <c r="F15" s="10">
         <v>0.52777777777777779</v>
       </c>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
     </row>
     <row r="16" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
@@ -1229,10 +1229,10 @@
       <c r="F16" s="10">
         <v>0.53472222222222221</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="I16" s="29" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1255,8 +1255,8 @@
       <c r="F17" s="10">
         <v>0.54166666666666663</v>
       </c>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
     </row>
     <row r="18" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
@@ -1277,8 +1277,8 @@
       <c r="F18" s="10">
         <v>0.54861111111111105</v>
       </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
@@ -1299,10 +1299,10 @@
       <c r="F19" s="10">
         <v>0.55555555555555558</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="H19" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="27" t="s">
+      <c r="I19" s="29" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1325,8 +1325,8 @@
       <c r="F20" s="10">
         <v>0.5625</v>
       </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
     </row>
     <row r="21" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
@@ -1347,8 +1347,8 @@
       <c r="F21" s="10">
         <v>0.56944444444444442</v>
       </c>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
     </row>
     <row r="22" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -1359,42 +1359,42 @@
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="40" t="s">
+      <c r="D24" s="18" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="40" t="s">
+      <c r="F24" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1417,10 +1417,10 @@
       <c r="F25" s="10">
         <v>0.64583333333333337</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="H25" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="19" t="s">
+      <c r="I25" s="22" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1443,8 +1443,8 @@
       <c r="F26" s="10">
         <v>0.65277777777777779</v>
       </c>
-      <c r="H26" s="28"/>
-      <c r="I26" s="20"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="23"/>
     </row>
     <row r="27" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
@@ -1465,8 +1465,8 @@
       <c r="F27" s="10">
         <v>0.65972222222222221</v>
       </c>
-      <c r="H27" s="29"/>
-      <c r="I27" s="20"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="23"/>
     </row>
     <row r="28" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
@@ -1487,10 +1487,10 @@
       <c r="F28" s="10">
         <v>0.66666666666666663</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="H28" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="I28" s="20"/>
+      <c r="I28" s="23"/>
     </row>
     <row r="29" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
@@ -1511,8 +1511,8 @@
       <c r="F29" s="10">
         <v>0.67361111111111116</v>
       </c>
-      <c r="H29" s="28"/>
-      <c r="I29" s="20"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="23"/>
     </row>
     <row r="30" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
@@ -1533,8 +1533,8 @@
       <c r="F30" s="10">
         <v>0.68055555555555547</v>
       </c>
-      <c r="H30" s="29"/>
-      <c r="I30" s="21"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="24"/>
     </row>
     <row r="31" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
@@ -1555,10 +1555,10 @@
       <c r="F31" s="10">
         <v>0.6875</v>
       </c>
-      <c r="H31" s="27" t="s">
+      <c r="H31" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="I31" s="30" t="s">
+      <c r="I31" s="32" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1581,8 +1581,8 @@
       <c r="F32" s="10">
         <v>0.69444444444444453</v>
       </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="31"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="33"/>
     </row>
     <row r="33" spans="1:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
@@ -1603,8 +1603,8 @@
       <c r="F33" s="10">
         <v>0.70138888888888884</v>
       </c>
-      <c r="H33" s="29"/>
-      <c r="I33" s="19" t="s">
+      <c r="H33" s="31"/>
+      <c r="I33" s="22" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1627,10 +1627,10 @@
       <c r="F34" s="10">
         <v>0.70833333333333337</v>
       </c>
-      <c r="H34" s="30" t="s">
+      <c r="H34" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="I34" s="20"/>
+      <c r="I34" s="23"/>
     </row>
     <row r="35" spans="1:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
@@ -1651,8 +1651,8 @@
       <c r="F35" s="10">
         <v>0.71527777777777779</v>
       </c>
-      <c r="H35" s="31"/>
-      <c r="I35" s="20"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="23"/>
     </row>
     <row r="36" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
@@ -1673,10 +1673,10 @@
       <c r="F36" s="10">
         <v>0.72222222222222221</v>
       </c>
-      <c r="H36" s="27" t="s">
+      <c r="H36" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="I36" s="20"/>
+      <c r="I36" s="23"/>
     </row>
     <row r="37" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
@@ -1697,8 +1697,8 @@
       <c r="F37" s="10">
         <v>0.72916666666666663</v>
       </c>
-      <c r="H37" s="28"/>
-      <c r="I37" s="20"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="23"/>
     </row>
     <row r="38" spans="1:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
@@ -1719,8 +1719,8 @@
       <c r="F38" s="10">
         <v>0.73611111111111116</v>
       </c>
-      <c r="H38" s="29"/>
-      <c r="I38" s="20"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="23"/>
     </row>
     <row r="39" spans="1:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
@@ -1741,10 +1741,10 @@
       <c r="F39" s="10">
         <v>0.74305555555555547</v>
       </c>
-      <c r="H39" s="27" t="s">
+      <c r="H39" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="I39" s="21"/>
+      <c r="I39" s="24"/>
     </row>
     <row r="40" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
@@ -1765,8 +1765,8 @@
       <c r="F40" s="10">
         <v>0.75</v>
       </c>
-      <c r="H40" s="28"/>
-      <c r="I40" s="32" t="s">
+      <c r="H40" s="30"/>
+      <c r="I40" s="34" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1789,8 +1789,8 @@
       <c r="F41" s="10">
         <v>0.75694444444444453</v>
       </c>
-      <c r="H41" s="29"/>
-      <c r="I41" s="33"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="35"/>
     </row>
     <row r="42" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
@@ -1812,7 +1812,7 @@
         <v>0.76388888888888884</v>
       </c>
       <c r="H42" s="6"/>
-      <c r="I42" s="33"/>
+      <c r="I42" s="35"/>
     </row>
     <row r="43" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
@@ -1834,7 +1834,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="H43" s="6"/>
-      <c r="I43" s="33"/>
+      <c r="I43" s="35"/>
     </row>
     <row r="44" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10">
@@ -1856,7 +1856,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="H44" s="6"/>
-      <c r="I44" s="33"/>
+      <c r="I44" s="35"/>
     </row>
     <row r="45" spans="1:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
@@ -1878,7 +1878,7 @@
         <v>0.8125</v>
       </c>
       <c r="H45" s="6"/>
-      <c r="I45" s="34"/>
+      <c r="I45" s="36"/>
     </row>
     <row r="46" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
@@ -1899,14 +1899,14 @@
       <c r="K47" s="6"/>
     </row>
     <row r="48" spans="1:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
     </row>
     <row r="49" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
@@ -1927,11 +1927,11 @@
       <c r="F49" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H49" s="43" t="s">
+      <c r="H49" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="I49" s="44"/>
-      <c r="J49" s="45"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="27"/>
     </row>
     <row r="50" spans="1:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
@@ -1968,12 +1968,12 @@
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="47"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="20"/>
     </row>
     <row r="52" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="10">
@@ -1994,13 +1994,13 @@
       <c r="F52" s="10">
         <v>0.85416666666666663</v>
       </c>
-      <c r="H52" s="17" t="s">
+      <c r="H52" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="I52" s="19" t="s">
+      <c r="I52" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J52" s="19" t="s">
+      <c r="J52" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2023,9 +2023,9 @@
       <c r="F53" s="10">
         <v>0.86111111111111116</v>
       </c>
-      <c r="H53" s="18"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
     </row>
     <row r="54" spans="1:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
@@ -2046,11 +2046,11 @@
       <c r="F54" s="10">
         <v>0.86805555555555547</v>
       </c>
-      <c r="H54" s="19" t="s">
+      <c r="H54" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
     </row>
@@ -2073,11 +2073,11 @@
       <c r="F55" s="10">
         <v>0.875</v>
       </c>
-      <c r="H55" s="20"/>
-      <c r="I55" s="19" t="s">
+      <c r="H55" s="23"/>
+      <c r="I55" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J55" s="19" t="s">
+      <c r="J55" s="22" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2100,9 +2100,9 @@
       <c r="F56" s="10">
         <v>0.88194444444444453</v>
       </c>
-      <c r="H56" s="21"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
     </row>
     <row r="57" spans="1:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
@@ -2123,11 +2123,11 @@
       <c r="F57" s="10">
         <v>0.88888888888888884</v>
       </c>
-      <c r="H57" s="19" t="s">
+      <c r="H57" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
     </row>
     <row r="58" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="10">
@@ -2148,12 +2148,12 @@
       <c r="F58" s="10">
         <v>0.89583333333333337</v>
       </c>
-      <c r="H58" s="20"/>
-      <c r="I58" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="J58" s="19" t="s">
-        <v>24</v>
+      <c r="H58" s="23"/>
+      <c r="I58" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="J58" s="22" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2175,9 +2175,9 @@
       <c r="F59" s="10">
         <v>0.90277777777777779</v>
       </c>
-      <c r="H59" s="21"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
     </row>
     <row r="60" spans="1:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
@@ -2198,11 +2198,11 @@
       <c r="F60" s="10">
         <v>0.90972222222222221</v>
       </c>
-      <c r="H60" s="30" t="s">
+      <c r="H60" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
       <c r="K60" s="6"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
@@ -2227,11 +2227,11 @@
       <c r="F61" s="10">
         <v>0.91666666666666663</v>
       </c>
-      <c r="H61" s="31"/>
-      <c r="I61" s="30" t="s">
+      <c r="H61" s="33"/>
+      <c r="I61" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="J61" s="30" t="s">
+      <c r="J61" s="32" t="s">
         <v>25</v>
       </c>
       <c r="K61" s="6"/>
@@ -2258,13 +2258,12 @@
       <c r="F62" s="10">
         <v>0.92361111111111116</v>
       </c>
-      <c r="H62" s="19" t="s">
+      <c r="H62" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="33"/>
       <c r="K62" s="6"/>
-      <c r="L62" s="3"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
     </row>
@@ -2287,15 +2286,14 @@
       <c r="F63" s="10">
         <v>0.93055555555555547</v>
       </c>
-      <c r="H63" s="20"/>
-      <c r="I63" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="J63" s="19" t="s">
-        <v>28</v>
+      <c r="H63" s="23"/>
+      <c r="I63" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J63" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="K63" s="6"/>
-      <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="6"/>
     </row>
@@ -2318,11 +2316,10 @@
       <c r="F64" s="10">
         <v>0.9375</v>
       </c>
-      <c r="H64" s="21"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
       <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
     </row>
@@ -2345,11 +2342,11 @@
       <c r="F65" s="10">
         <v>0.94444444444444453</v>
       </c>
-      <c r="H65" s="19" t="s">
+      <c r="H65" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
       <c r="K65" s="6"/>
       <c r="L65" s="1"/>
       <c r="M65" s="6"/>
@@ -2374,11 +2371,11 @@
       <c r="F66" s="10">
         <v>0.95138888888888884</v>
       </c>
-      <c r="H66" s="20"/>
-      <c r="I66" s="19" t="s">
+      <c r="H66" s="23"/>
+      <c r="I66" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="J66" s="35" t="s">
+      <c r="J66" s="37" t="s">
         <v>42</v>
       </c>
       <c r="K66" s="6"/>
@@ -2405,9 +2402,9 @@
       <c r="F67" s="10">
         <v>0.95833333333333337</v>
       </c>
-      <c r="H67" s="21"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="36"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="38"/>
       <c r="K67" s="6"/>
       <c r="L67" s="3"/>
       <c r="M67" s="6"/>
@@ -2432,11 +2429,11 @@
       <c r="F68" s="10">
         <v>0.96527777777777779</v>
       </c>
-      <c r="H68" s="30" t="s">
+      <c r="H68" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="I68" s="21"/>
-      <c r="J68" s="36"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="38"/>
       <c r="K68" s="6"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
@@ -2461,11 +2458,11 @@
       <c r="F69" s="10">
         <v>0.97222222222222221</v>
       </c>
-      <c r="H69" s="31"/>
-      <c r="I69" s="35" t="s">
+      <c r="H69" s="33"/>
+      <c r="I69" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="J69" s="37"/>
+      <c r="J69" s="39"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
@@ -2490,10 +2487,10 @@
       <c r="F70" s="10">
         <v>0.97916666666666663</v>
       </c>
-      <c r="H70" s="19" t="s">
+      <c r="H70" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="I70" s="36"/>
+      <c r="I70" s="38"/>
       <c r="J70" s="11" t="s">
         <v>32</v>
       </c>
@@ -2521,8 +2518,8 @@
       <c r="F71" s="10">
         <v>0.98611111111111116</v>
       </c>
-      <c r="H71" s="20"/>
-      <c r="I71" s="36"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="38"/>
       <c r="J71" s="12"/>
       <c r="K71" s="6"/>
       <c r="L71" s="3"/>
@@ -2548,8 +2545,8 @@
       <c r="F72" s="10">
         <v>0.99305555555555547</v>
       </c>
-      <c r="H72" s="21"/>
-      <c r="I72" s="37"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="39"/>
       <c r="J72" s="12"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
@@ -2676,6 +2673,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="I25:I30"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="J52:J54"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="I63:I65"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="I66:I68"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="J66:J69"/>
+    <mergeCell ref="I69:I72"/>
+    <mergeCell ref="J63:J65"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="J58:J60"/>
     <mergeCell ref="H70:H72"/>
     <mergeCell ref="I52:I54"/>
     <mergeCell ref="H49:J49"/>
@@ -2692,40 +2720,9 @@
     <mergeCell ref="I31:I32"/>
     <mergeCell ref="I33:I39"/>
     <mergeCell ref="I40:I45"/>
-    <mergeCell ref="J66:J69"/>
-    <mergeCell ref="I69:I72"/>
-    <mergeCell ref="J58:J60"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="J63:J65"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="J52:J54"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="I63:I65"/>
-    <mergeCell ref="I66:I68"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="I25:I30"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="8" scale="85" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
